--- a/biology/Botanique/Clematis_cylindrica/Clematis_cylindrica.xlsx
+++ b/biology/Botanique/Clematis_cylindrica/Clematis_cylindrica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clematis cylindrica est une espèce de plante grimpante de la famille des Ranunculaceae originaire d'Amérique du Nord.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les rameaux dichotomes, rougeâtres, cannelés, portant des feuilles à cinq ou sept folioles ovale ou oblongues, aiguës ou obtuses, entières ou parfois incisées, épaisses, vert foncé, glabres sur les deux faces ou parfois un peu velues en dessous ; pétioles grêles, allongés et contournés au sommet.
-Fleurs plus grandes que la Clematis crispa, solitaires, terminales, penchées, à quatre sépales campanulés, connivents en tube jusqu'au delà du milieu, deltoïdes, puis étalés, aiguës mais non recurvés au sommet, de 3 à 6 centimètres de long, d'un bleu presque pur, glabres en dedans et duveteux en dehors, surtout sur les bords ; pédoncules forts, dressés, pourvus au milieu de feuilles réduites ou bractées ovales et pétiolées, étamines à filets aplatis, poilus au sommet ainsi que les anthères. Akène inconnus en culture[1].</t>
+Fleurs plus grandes que la Clematis crispa, solitaires, terminales, penchées, à quatre sépales campanulés, connivents en tube jusqu'au delà du milieu, deltoïdes, puis étalés, aiguës mais non recurvés au sommet, de 3 à 6 centimètres de long, d'un bleu presque pur, glabres en dedans et duveteux en dehors, surtout sur les bords ; pédoncules forts, dressés, pourvus au milieu de feuilles réduites ou bractées ovales et pétiolées, étamines à filets aplatis, poilus au sommet ainsi que les anthères. Akène inconnus en culture.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est originaire de l'Amérique du Nord et existe depuis 1802 dans les jardins, mais elle y est fort peu répandue.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains botanistes ont illustré et décrit cette variété sous le nom de Clematis bergeroni, une plante d'origine obscure, à fleurs rose violacé, se rapprochant beaucoup de celle-ci.
 </t>
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
